--- a/faili/kontrolpunktu tabula (bez km).xlsx
+++ b/faili/kontrolpunktu tabula (bez km).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="15">
   <si>
     <t>N*N</t>
   </si>
@@ -58,18 +58,32 @@
   </si>
   <si>
     <t>41,6k</t>
+  </si>
+  <si>
+    <t>starts</t>
+  </si>
+  <si>
+    <t>finišs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="186"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -139,21 +153,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -211,21 +210,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -260,11 +244,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -272,41 +280,38 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -590,13 +595,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -636,571 +643,664 @@
       <c r="M1" s="4">
         <v>2</v>
       </c>
-      <c r="N1" s="5">
+      <c r="N1" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="O1" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="13">
+      <c r="B2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="11">
         <v>2.6</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="11">
         <v>3.8</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="11">
         <v>6.4</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="11">
         <v>4.8</v>
       </c>
-      <c r="G2" s="13">
+      <c r="G2" s="11">
         <v>2.2000000000000002</v>
       </c>
-      <c r="H2" s="13">
+      <c r="H2" s="11">
         <v>23.6</v>
       </c>
-      <c r="I2" s="13">
+      <c r="I2" s="11">
         <v>47.6</v>
       </c>
-      <c r="J2" s="13">
+      <c r="J2" s="11">
         <v>29.2</v>
       </c>
-      <c r="K2" s="13">
+      <c r="K2" s="11">
         <v>38.799999999999997</v>
       </c>
-      <c r="L2" s="14">
+      <c r="L2" s="12">
         <v>23.2</v>
       </c>
-      <c r="M2" s="14">
+      <c r="M2" s="12">
         <v>5.2</v>
       </c>
-      <c r="N2" s="15">
+      <c r="N2" s="12">
         <v>40.799999999999997</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="O2" s="13">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="8">
         <v>2.6</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="13">
+      <c r="C3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="11">
         <v>6.4</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="11">
         <v>6.4</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="11">
         <v>7.6</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="11">
         <v>1.4</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="11">
         <v>21.2</v>
       </c>
-      <c r="I3" s="13">
+      <c r="I3" s="11">
         <v>45.2</v>
       </c>
-      <c r="J3" s="13">
+      <c r="J3" s="11">
         <v>25.6</v>
       </c>
-      <c r="K3" s="13">
+      <c r="K3" s="11">
         <v>36.799999999999997</v>
       </c>
-      <c r="L3" s="14">
+      <c r="L3" s="12">
         <v>21.2</v>
       </c>
-      <c r="M3" s="14">
+      <c r="M3" s="12">
         <v>3.2</v>
       </c>
-      <c r="N3" s="15">
+      <c r="N3" s="12">
         <v>39.6</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="O3" s="13">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="9">
         <v>3.8</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="11">
         <v>6.4</v>
       </c>
-      <c r="D4" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="13">
+      <c r="D4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="11">
         <v>8.8000000000000007</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="11">
         <v>7.2</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="11">
         <v>6</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="11">
         <v>27.2</v>
       </c>
-      <c r="I4" s="13">
+      <c r="I4" s="11">
         <v>51.2</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4" s="11">
         <v>32.799999999999997</v>
       </c>
-      <c r="K4" s="13">
+      <c r="K4" s="11">
         <v>42.8</v>
       </c>
-      <c r="L4" s="14">
+      <c r="L4" s="12">
         <v>27.2</v>
       </c>
-      <c r="M4" s="14">
+      <c r="M4" s="12">
         <v>8.8000000000000007</v>
       </c>
-      <c r="N4" s="15">
+      <c r="N4" s="12">
         <v>44.8</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="O4" s="13">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="9">
         <v>6.4</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="11">
         <v>6.4</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="11">
         <v>8.8000000000000007</v>
       </c>
-      <c r="E5" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="13">
+      <c r="E5" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="11">
         <v>2.6</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="11">
         <v>1.6</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="11">
         <v>25.6</v>
       </c>
-      <c r="I5" s="13">
+      <c r="I5" s="11">
         <v>49.6</v>
       </c>
-      <c r="J5" s="13">
+      <c r="J5" s="11">
         <v>30.8</v>
       </c>
-      <c r="K5" s="13">
+      <c r="K5" s="11">
         <v>38</v>
       </c>
-      <c r="L5" s="14">
+      <c r="L5" s="12">
         <v>26</v>
       </c>
-      <c r="M5" s="14">
+      <c r="M5" s="12">
         <v>9.1999999999999993</v>
       </c>
-      <c r="N5" s="15">
+      <c r="N5" s="12">
         <v>43.6</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="O5" s="13">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="9">
         <v>4.8</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="11">
         <v>7.6</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="11">
         <v>7.2</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="11">
         <v>2.6</v>
       </c>
-      <c r="F6" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="13">
+      <c r="F6" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="11">
         <v>8.8000000000000007</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="11">
         <v>30.4</v>
       </c>
-      <c r="I6" s="13">
+      <c r="I6" s="11">
         <v>52.4</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="11">
         <v>34.4</v>
       </c>
-      <c r="K6" s="13" t="s">
+      <c r="K6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="14">
+      <c r="L6" s="12">
         <v>24.8</v>
       </c>
-      <c r="M6" s="14">
+      <c r="M6" s="12">
         <v>6.8</v>
       </c>
-      <c r="N6" s="15">
+      <c r="N6" s="12">
         <v>42.4</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="O6" s="13">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="9">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="11">
         <v>1.4</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="11">
         <v>6</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="11">
         <v>1.6</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="11">
         <v>8.8000000000000007</v>
       </c>
-      <c r="G7" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="13">
+      <c r="G7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="11">
         <v>22.4</v>
       </c>
-      <c r="I7" s="13">
+      <c r="I7" s="11">
         <v>46.4</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J7" s="11">
         <v>28</v>
       </c>
-      <c r="K7" s="13">
+      <c r="K7" s="11">
         <v>38</v>
       </c>
-      <c r="L7" s="14">
+      <c r="L7" s="12">
         <v>22.4</v>
       </c>
-      <c r="M7" s="14">
+      <c r="M7" s="12">
         <v>4</v>
       </c>
-      <c r="N7" s="15">
+      <c r="N7" s="12">
         <v>39.6</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="O7" s="13">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="9">
         <v>23.6</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="11">
         <v>21.2</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="11">
         <v>27.2</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="11">
         <v>25.6</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="11">
         <v>30.4</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="11">
         <v>22.4</v>
       </c>
-      <c r="H8" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" s="13">
+      <c r="H8" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="11">
         <v>45.2</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J8" s="11">
         <v>32</v>
       </c>
-      <c r="K8" s="13">
+      <c r="K8" s="11">
         <v>26</v>
       </c>
-      <c r="L8" s="14">
+      <c r="L8" s="12">
         <v>12.8</v>
       </c>
-      <c r="M8" s="14">
+      <c r="M8" s="12">
         <v>20</v>
       </c>
-      <c r="N8" s="15">
+      <c r="N8" s="12">
         <v>39.200000000000003</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="O8" s="13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="9">
         <v>47.6</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="11">
         <v>45.2</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="11">
         <v>51.2</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="11">
         <v>49.6</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="11">
         <v>52.4</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="11">
         <v>46.4</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="11">
         <v>45.2</v>
       </c>
-      <c r="I9" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="J9" s="13">
+      <c r="I9" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" s="11">
         <v>42.8</v>
       </c>
-      <c r="K9" s="13">
+      <c r="K9" s="11">
         <v>25.2</v>
       </c>
-      <c r="L9" s="14">
+      <c r="L9" s="12">
         <v>32.799999999999997</v>
       </c>
-      <c r="M9" s="14">
+      <c r="M9" s="12">
         <v>41.6</v>
       </c>
-      <c r="N9" s="15">
+      <c r="N9" s="12">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="O9" s="13">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="9">
         <v>29.2</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="11">
         <v>25.6</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="11">
         <v>32.799999999999997</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="11">
         <v>30.8</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="11">
         <v>34.4</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="11">
         <v>28</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="11">
         <v>32</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I10" s="11">
         <v>42.8</v>
       </c>
-      <c r="J10" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="13">
+      <c r="J10" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="11">
         <v>34</v>
       </c>
-      <c r="L10" s="14">
+      <c r="L10" s="12">
         <v>19.2</v>
       </c>
-      <c r="M10" s="14">
+      <c r="M10" s="12">
         <v>23.2</v>
       </c>
-      <c r="N10" s="15">
+      <c r="N10" s="12">
         <v>36.799999999999997</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="O10" s="13">
+        <v>23.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="9">
         <v>38.799999999999997</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="11">
         <v>36.799999999999997</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="11">
         <v>42.8</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="11">
         <v>38</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="11">
         <v>41.6</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="11">
         <v>38</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H11" s="11">
         <v>26</v>
       </c>
-      <c r="I11" s="13">
+      <c r="I11" s="11">
         <v>25.2</v>
       </c>
-      <c r="J11" s="13">
+      <c r="J11" s="11">
         <v>34</v>
       </c>
-      <c r="K11" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="L11" s="14">
+      <c r="K11" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="L11" s="12">
         <v>13.6</v>
       </c>
-      <c r="M11" s="14">
+      <c r="M11" s="12">
         <v>30.4</v>
       </c>
-      <c r="N11" s="15">
+      <c r="N11" s="12">
         <v>19.2</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
+      <c r="O11" s="13">
+        <v>30.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
         <v>1</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="8">
         <v>23.2</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="11">
         <v>21.2</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="12">
         <v>27.2</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="12">
         <v>26</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="12">
         <v>24.8</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="12">
         <v>22.4</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12" s="12">
         <v>12.8</v>
       </c>
-      <c r="I12" s="14">
+      <c r="I12" s="12">
         <v>32.799999999999997</v>
       </c>
-      <c r="J12" s="14">
+      <c r="J12" s="12">
         <v>19.2</v>
       </c>
-      <c r="K12" s="14">
+      <c r="K12" s="12">
         <v>13.6</v>
       </c>
-      <c r="L12" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="M12" s="14"/>
-      <c r="N12" s="15"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
+      <c r="L12" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
         <v>2</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="8">
         <v>5.2</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="11">
         <v>3.2</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="12">
         <v>8.8000000000000007</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="12">
         <v>9.1999999999999993</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="12">
         <v>6.8</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G13" s="12">
         <v>4</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H13" s="12">
         <v>20</v>
       </c>
-      <c r="I13" s="14">
+      <c r="I13" s="12">
         <v>41.6</v>
       </c>
-      <c r="J13" s="14">
+      <c r="J13" s="12">
         <v>23.2</v>
       </c>
-      <c r="K13" s="14">
+      <c r="K13" s="12">
         <v>30.4</v>
       </c>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="N13" s="15"/>
-    </row>
-    <row r="14" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="9">
+      <c r="L13" s="12"/>
+      <c r="M13" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="N13" s="12"/>
+      <c r="O13" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
         <v>3</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="19">
         <v>40.799999999999997</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="11">
         <v>39.6</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="12">
         <v>44.8</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="12">
         <v>43.6</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F14" s="12">
         <v>42.4</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G14" s="12">
         <v>39.6</v>
       </c>
-      <c r="H14" s="17">
+      <c r="H14" s="12">
         <v>39.200000000000003</v>
       </c>
-      <c r="I14" s="17">
+      <c r="I14" s="12">
         <v>6</v>
       </c>
-      <c r="J14" s="17">
+      <c r="J14" s="12">
         <v>36.799999999999997</v>
       </c>
-      <c r="K14" s="17">
+      <c r="K14" s="12">
         <v>19.2</v>
       </c>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="18" t="s">
-        <v>11</v>
-      </c>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="O14" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="10">
+        <v>24</v>
+      </c>
+      <c r="C15" s="14">
+        <v>26</v>
+      </c>
+      <c r="D15" s="14">
+        <v>29.6</v>
+      </c>
+      <c r="E15" s="14">
+        <v>28.4</v>
+      </c>
+      <c r="F15" s="14">
+        <v>27.6</v>
+      </c>
+      <c r="G15" s="14">
+        <v>24.8</v>
+      </c>
+      <c r="H15" s="14">
+        <v>5.2</v>
+      </c>
+      <c r="I15" s="14">
+        <v>50.8</v>
+      </c>
+      <c r="J15" s="14">
+        <v>37.6</v>
+      </c>
+      <c r="K15" s="14">
+        <v>32</v>
+      </c>
+      <c r="L15" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="M15" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="N15" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="O15" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C21" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>